--- a/excel/fon_si_average_neighbor_degree.xlsx
+++ b/excel/fon_si_average_neighbor_degree.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,16 +488,6 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Tatjana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
